--- a/PhysicalSample.xlsx
+++ b/PhysicalSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="408" windowWidth="13956" windowHeight="6708" tabRatio="658"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="13950" windowHeight="6705" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -3815,7 +3815,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1487">
   <si>
     <t>IGSN</t>
   </si>
@@ -8401,6 +8401,12 @@
   <si>
     <t>This workbook documents a content model for basic data characterizing a physical sample. The content model is based on consideration of content requested for SESAR, EarthTime, GeoSciML, Storet, ISO19115.  Focus is on terrestrial (land based) samples. Content model includes sufficient information for SESAR registration (see http://www.geosamples.org/), but is not complete with all possible content in the SESAR sample data model.</t>
   </si>
+  <si>
+    <t>This work is licensed under a Creative Commons Attribution 3.0 Unported License.</t>
+  </si>
+  <si>
+    <t>Copyright © Arizona Geological Survey, 2012</t>
+  </si>
 </sst>
 </file>
 
@@ -8410,7 +8416,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color indexed="8"/>
@@ -8832,6 +8838,12 @@
       <sz val="9"/>
       <color theme="10"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -9613,7 +9625,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10080,6 +10092,9 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10124,8 +10139,9 @@
     <xf numFmtId="0" fontId="44" fillId="43" borderId="31" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="94" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="95">
@@ -10504,6 +10520,81 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="Creative Commons License">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600076" y="6591300"/>
+          <a:ext cx="885824" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -10863,20 +10954,20 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="79"/>
-    <col min="2" max="2" width="16.875" style="79" customWidth="1"/>
-    <col min="3" max="3" width="79.125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="78" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="79" customWidth="1"/>
+    <col min="2" max="2" width="13" style="79" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="79" customWidth="1"/>
     <col min="6" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="80" t="s">
         <v>183</v>
       </c>
@@ -10884,7 +10975,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="80" t="s">
         <v>184</v>
       </c>
@@ -10892,15 +10983,15 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="86.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="90" x14ac:dyDescent="0.2">
       <c r="B4" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="165" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="80" t="s">
         <v>186</v>
       </c>
@@ -10908,11 +10999,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="84"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B7" s="86" t="s">
         <v>215</v>
       </c>
@@ -10920,7 +11011,7 @@
       <c r="D7" s="87"/>
       <c r="E7" s="86"/>
     </row>
-    <row r="8" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="88" t="s">
         <v>187</v>
       </c>
@@ -10934,7 +11025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="90">
         <v>0.1</v>
       </c>
@@ -10948,7 +11039,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="93" t="s">
         <v>203</v>
       </c>
@@ -10962,7 +11053,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="93" t="s">
         <v>212</v>
       </c>
@@ -10976,7 +11067,7 @@
         <v>40702</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.2">
       <c r="B12" s="95" t="s">
         <v>241</v>
       </c>
@@ -10990,7 +11081,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="97" t="s">
         <v>279</v>
       </c>
@@ -11004,7 +11095,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B14" s="99" t="s">
         <v>279</v>
       </c>
@@ -11018,7 +11109,7 @@
         <v>40773</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="102" t="s">
         <v>301</v>
       </c>
@@ -11032,7 +11123,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="104" t="s">
         <v>301</v>
       </c>
@@ -11086,7 +11177,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B20" s="145" t="s">
         <v>1483</v>
       </c>
@@ -11112,14 +11203,24 @@
       <c r="D22" s="108"/>
       <c r="E22" s="94"/>
     </row>
-    <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="180" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="181" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="109" t="s">
         <v>354</v>
       </c>
       <c r="D27" s="110"/>
       <c r="E27" s="110"/>
     </row>
-    <row r="28" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="111" t="s">
         <v>188</v>
       </c>
@@ -11130,30 +11231,34 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="C29" s="113"/>
       <c r="D29" s="114"/>
       <c r="E29" s="115"/>
     </row>
-    <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="C30" s="113"/>
       <c r="D30" s="114"/>
       <c r="E30" s="113"/>
     </row>
-    <row r="31" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="C31" s="113"/>
       <c r="D31" s="114"/>
       <c r="E31" s="113"/>
     </row>
-    <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="C32" s="113"/>
       <c r="D32" s="114"/>
       <c r="E32" s="113"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1" display="http://creativecommons.org/licenses/by/3.0/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -11166,9 +11271,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11181,7 +11286,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="119" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>216</v>
       </c>
@@ -11191,7 +11296,7 @@
       <c r="E2" s="118"/>
       <c r="F2" s="118"/>
     </row>
-    <row r="3" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
       <c r="C3" s="121"/>
@@ -11199,7 +11304,7 @@
       <c r="E3" s="121"/>
       <c r="F3" s="121"/>
     </row>
-    <row r="4" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
         <v>217</v>
       </c>
@@ -11209,7 +11314,7 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
     </row>
-    <row r="5" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>218</v>
       </c>
@@ -11219,7 +11324,7 @@
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
     </row>
-    <row r="6" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="123" t="s">
         <v>219</v>
       </c>
@@ -11229,7 +11334,7 @@
       <c r="E6" s="122"/>
       <c r="F6" s="122"/>
     </row>
-    <row r="7" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>220</v>
       </c>
@@ -11239,7 +11344,7 @@
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
     </row>
-    <row r="8" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
         <v>221</v>
       </c>
@@ -11249,7 +11354,7 @@
       <c r="E8" s="122"/>
       <c r="F8" s="122"/>
     </row>
-    <row r="9" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>222</v>
       </c>
@@ -11259,7 +11364,7 @@
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
     </row>
-    <row r="10" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="123" t="s">
         <v>223</v>
       </c>
@@ -11269,7 +11374,7 @@
       <c r="E10" s="122"/>
       <c r="F10" s="122"/>
     </row>
-    <row r="11" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
         <v>224</v>
       </c>
@@ -11279,7 +11384,7 @@
       <c r="E11" s="122"/>
       <c r="F11" s="122"/>
     </row>
-    <row r="12" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
         <v>225</v>
       </c>
@@ -11289,7 +11394,7 @@
       <c r="E12" s="122"/>
       <c r="F12" s="122"/>
     </row>
-    <row r="13" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>226</v>
       </c>
@@ -11299,7 +11404,7 @@
       <c r="E13" s="122"/>
       <c r="F13" s="122"/>
     </row>
-    <row r="14" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="123" t="s">
         <v>227</v>
       </c>
@@ -11309,7 +11414,7 @@
       <c r="E14" s="122"/>
       <c r="F14" s="122"/>
     </row>
-    <row r="15" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="122" t="s">
         <v>228</v>
       </c>
@@ -11319,7 +11424,7 @@
       <c r="E15" s="122"/>
       <c r="F15" s="122"/>
     </row>
-    <row r="16" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
         <v>229</v>
       </c>
@@ -11329,7 +11434,7 @@
       <c r="E16" s="122"/>
       <c r="F16" s="122"/>
     </row>
-    <row r="17" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
         <v>230</v>
       </c>
@@ -11339,7 +11444,7 @@
       <c r="E17" s="122"/>
       <c r="F17" s="122"/>
     </row>
-    <row r="18" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="122" t="s">
         <v>231</v>
       </c>
@@ -11349,7 +11454,7 @@
       <c r="E18" s="122"/>
       <c r="F18" s="122"/>
     </row>
-    <row r="19" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="122" t="s">
         <v>232</v>
       </c>
@@ -11359,7 +11464,7 @@
       <c r="E19" s="122"/>
       <c r="F19" s="122"/>
     </row>
-    <row r="20" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="122" t="s">
         <v>233</v>
       </c>
@@ -11369,7 +11474,7 @@
       <c r="E20" s="122"/>
       <c r="F20" s="122"/>
     </row>
-    <row r="21" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="122" t="s">
         <v>234</v>
       </c>
@@ -11379,20 +11484,20 @@
       <c r="E21" s="122"/>
       <c r="F21" s="122"/>
     </row>
-    <row r="22" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="124" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" s="119" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" s="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11408,88 +11513,88 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="3" customWidth="1"/>
     <col min="2" max="6" width="15" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+    <row r="6" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
     </row>
     <row r="7" spans="1:6" s="37" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="168" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="166" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -11529,59 +11634,59 @@
       <selection activeCell="BI2" sqref="A2:BI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="39" customWidth="1"/>
     <col min="5" max="5" width="20" style="39" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="41" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="28" customWidth="1"/>
     <col min="13" max="13" width="10" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="28" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="9.375" style="28" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="28"/>
-    <col min="18" max="18" width="7.625" style="28" customWidth="1"/>
-    <col min="19" max="19" width="14.875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="28"/>
+    <col min="18" max="18" width="7.5703125" style="28" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="28" customWidth="1"/>
     <col min="20" max="21" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="28" customWidth="1"/>
-    <col min="23" max="30" width="7.625" style="28" customWidth="1"/>
-    <col min="31" max="31" width="11.25" style="28" customWidth="1"/>
-    <col min="32" max="32" width="12.375" style="28" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.875" style="28" customWidth="1"/>
-    <col min="35" max="35" width="9.125" style="28"/>
-    <col min="36" max="38" width="15.25" style="28" customWidth="1"/>
-    <col min="39" max="39" width="12.75" style="28" customWidth="1"/>
-    <col min="40" max="40" width="12.875" style="28" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="28" customWidth="1"/>
+    <col min="23" max="30" width="7.5703125" style="28" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="28" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="28" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" style="28" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="28"/>
+    <col min="36" max="38" width="15.28515625" style="28" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="28" customWidth="1"/>
+    <col min="40" max="40" width="12.85546875" style="28" customWidth="1"/>
     <col min="41" max="41" width="12" style="28" customWidth="1"/>
-    <col min="42" max="42" width="13.375" style="28" customWidth="1"/>
-    <col min="43" max="43" width="8.375" style="28" customWidth="1"/>
-    <col min="44" max="44" width="6.75" style="28" customWidth="1"/>
-    <col min="45" max="45" width="6.375" style="28" customWidth="1"/>
-    <col min="46" max="46" width="6.875" style="28" customWidth="1"/>
-    <col min="47" max="47" width="14.875" style="28" customWidth="1"/>
-    <col min="48" max="48" width="14.375" style="28" customWidth="1"/>
-    <col min="49" max="49" width="14.75" style="28" customWidth="1"/>
-    <col min="50" max="50" width="13.625" style="28" customWidth="1"/>
-    <col min="51" max="51" width="14.375" style="28" customWidth="1"/>
-    <col min="52" max="52" width="14.75" style="28" customWidth="1"/>
+    <col min="42" max="42" width="13.42578125" style="28" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" style="28" customWidth="1"/>
+    <col min="44" max="44" width="6.7109375" style="28" customWidth="1"/>
+    <col min="45" max="45" width="6.42578125" style="28" customWidth="1"/>
+    <col min="46" max="46" width="6.85546875" style="28" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" style="28" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" style="28" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" style="28" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" style="28" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" style="28" customWidth="1"/>
+    <col min="52" max="52" width="14.7109375" style="28" customWidth="1"/>
     <col min="53" max="53" width="14" style="28" customWidth="1"/>
-    <col min="54" max="54" width="9.125" style="28"/>
-    <col min="55" max="56" width="11.625" style="28" customWidth="1"/>
-    <col min="57" max="57" width="9.625" style="28" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" style="28"/>
+    <col min="55" max="56" width="11.5703125" style="28" customWidth="1"/>
+    <col min="57" max="57" width="9.5703125" style="28" customWidth="1"/>
     <col min="58" max="58" width="11" style="28" customWidth="1"/>
-    <col min="59" max="59" width="11.625" style="28" customWidth="1"/>
-    <col min="60" max="60" width="19.125" style="28" customWidth="1"/>
-    <col min="61" max="61" width="9.375" style="28" customWidth="1"/>
-    <col min="62" max="16384" width="9.125" style="28"/>
+    <col min="59" max="59" width="11.5703125" style="28" customWidth="1"/>
+    <col min="60" max="60" width="19.140625" style="28" customWidth="1"/>
+    <col min="61" max="61" width="9.42578125" style="28" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11657,7 +11762,7 @@
       </c>
       <c r="BI1" s="26"/>
     </row>
-    <row r="2" spans="1:61" s="27" customFormat="1" ht="41.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>211</v>
       </c>
@@ -11842,7 +11947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="27" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>247</v>
       </c>
@@ -11982,44 +12087,44 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="151" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="151" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="151" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.375" style="151" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="151" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="151" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="151" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="151" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="170" t="s">
         <v>1471</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>1472</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="46"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>304</v>
       </c>
@@ -12041,7 +12146,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>211</v>
       </c>
@@ -12061,7 +12166,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>151</v>
       </c>
@@ -12081,7 +12186,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="79.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>170</v>
       </c>
@@ -12101,7 +12206,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="126" customFormat="1" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="126" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="128" t="s">
         <v>373</v>
       </c>
@@ -12119,7 +12224,7 @@
       </c>
       <c r="F7" s="164"/>
     </row>
-    <row r="8" spans="1:9" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="129" t="s">
         <v>76</v>
       </c>
@@ -12137,7 +12242,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>280</v>
       </c>
@@ -12157,7 +12262,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="79.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="84" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>164</v>
       </c>
@@ -12175,7 +12280,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>124</v>
       </c>
@@ -12195,7 +12300,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>155</v>
       </c>
@@ -12215,7 +12320,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>132</v>
       </c>
@@ -12235,7 +12340,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>150</v>
       </c>
@@ -12255,7 +12360,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>177</v>
       </c>
@@ -12273,7 +12378,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="136.80000000000001" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>109</v>
       </c>
@@ -12293,7 +12398,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>89</v>
       </c>
@@ -12313,7 +12418,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>90</v>
       </c>
@@ -12333,7 +12438,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>123</v>
       </c>
@@ -12351,7 +12456,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>1359</v>
       </c>
@@ -12371,7 +12476,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="129" t="s">
         <v>1360</v>
       </c>
@@ -12391,7 +12496,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>176</v>
       </c>
@@ -12411,7 +12516,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>171</v>
       </c>
@@ -12428,7 +12533,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>84</v>
       </c>
@@ -12446,7 +12551,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>254</v>
       </c>
@@ -12466,7 +12571,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>255</v>
       </c>
@@ -12486,7 +12591,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="108" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>276</v>
       </c>
@@ -12507,7 +12612,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>258</v>
       </c>
@@ -12525,7 +12630,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>259</v>
       </c>
@@ -12543,7 +12648,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>260</v>
       </c>
@@ -12561,7 +12666,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>1364</v>
       </c>
@@ -12579,7 +12684,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>261</v>
       </c>
@@ -12594,7 +12699,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>262</v>
       </c>
@@ -12612,7 +12717,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>263</v>
       </c>
@@ -12630,7 +12735,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>264</v>
       </c>
@@ -12648,7 +12753,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>1479</v>
       </c>
@@ -12663,7 +12768,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="79.8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>242</v>
       </c>
@@ -12683,7 +12788,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="91.2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>243</v>
       </c>
@@ -12703,7 +12808,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>95</v>
       </c>
@@ -12721,7 +12826,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
         <v>244</v>
       </c>
@@ -12739,7 +12844,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="102.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="108" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>1365</v>
       </c>
@@ -12759,7 +12864,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="79.8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>1368</v>
       </c>
@@ -12779,7 +12884,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>1469</v>
       </c>
@@ -12797,7 +12902,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="91.2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>1369</v>
       </c>
@@ -12815,7 +12920,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>1370</v>
       </c>
@@ -12835,7 +12940,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>1371</v>
       </c>
@@ -12855,7 +12960,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>1372</v>
       </c>
@@ -12876,7 +12981,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>158</v>
       </c>
@@ -12891,7 +12996,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>88</v>
       </c>
@@ -12906,7 +13011,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>257</v>
       </c>
@@ -12924,7 +13029,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>161</v>
       </c>
@@ -12944,7 +13049,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
         <v>162</v>
       </c>
@@ -12962,7 +13067,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="68.400000000000006" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="72" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>1375</v>
       </c>
@@ -12980,7 +13085,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>1376</v>
       </c>
@@ -12998,7 +13103,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
         <v>117</v>
       </c>
@@ -13016,7 +13121,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
         <v>173</v>
       </c>
@@ -13034,7 +13139,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>114</v>
       </c>
@@ -13052,7 +13157,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="136.80000000000001" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>362</v>
       </c>
@@ -13070,7 +13175,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>49</v>
       </c>
@@ -13150,13 +13255,13 @@
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" style="141" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.375" style="141" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" style="141" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="152" t="s">
         <v>282</v>
       </c>
@@ -13164,7 +13269,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
         <v>283</v>
       </c>
@@ -13174,7 +13279,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="133">
         <v>4267</v>
       </c>
@@ -13184,7 +13289,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="133">
         <v>4269</v>
       </c>
@@ -13194,7 +13299,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135">
         <v>4326</v>
       </c>
@@ -13204,17 +13309,17 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="137"/>
       <c r="B6" s="138"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="137"/>
       <c r="B7" s="137"/>
     </row>
-    <row r="8" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="155" t="s">
         <v>376</v>
       </c>
@@ -13222,123 +13327,123 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="139" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="137"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="139" t="s">
         <v>378</v>
       </c>
       <c r="B10" s="137"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="139" t="s">
         <v>379</v>
       </c>
       <c r="B11" s="137"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="139" t="s">
         <v>380</v>
       </c>
       <c r="B12" s="137"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="139" t="s">
         <v>381</v>
       </c>
       <c r="B13" s="137"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="139" t="s">
         <v>382</v>
       </c>
       <c r="B14" s="137"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="139" t="s">
         <v>383</v>
       </c>
       <c r="B15" s="137"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="139" t="s">
         <v>384</v>
       </c>
       <c r="B16" s="137"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="139" t="s">
         <v>385</v>
       </c>
       <c r="B17" s="137"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="139" t="s">
         <v>386</v>
       </c>
       <c r="B18" s="137"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="139" t="s">
         <v>387</v>
       </c>
       <c r="B19" s="137"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="139" t="s">
         <v>388</v>
       </c>
       <c r="B20" s="137"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="139" t="s">
         <v>389</v>
       </c>
       <c r="B21" s="137"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="139" t="s">
         <v>390</v>
       </c>
       <c r="B22" s="137"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="139" t="s">
         <v>391</v>
       </c>
       <c r="B23" s="137"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="139" t="s">
         <v>392</v>
       </c>
       <c r="B24" s="137"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="140" t="s">
         <v>393</v>
       </c>
       <c r="B25" s="137"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="154" t="s">
         <v>394</v>
       </c>
@@ -13347,7 +13452,7 @@
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="142" t="s">
         <v>395</v>
       </c>
@@ -13356,7 +13461,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="142" t="s">
         <v>396</v>
       </c>
@@ -13365,7 +13470,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="142" t="s">
         <v>397</v>
       </c>
@@ -13374,7 +13479,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="142" t="s">
         <v>398</v>
       </c>
@@ -13383,7 +13488,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="142" t="s">
         <v>399</v>
       </c>
@@ -13392,7 +13497,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="142" t="s">
         <v>400</v>
       </c>
@@ -13400,7 +13505,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="142" t="s">
         <v>401</v>
       </c>
@@ -13408,7 +13513,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="142" t="s">
         <v>402</v>
       </c>
@@ -13416,7 +13521,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="142" t="s">
         <v>250</v>
       </c>
@@ -13424,7 +13529,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="142" t="s">
         <v>403</v>
       </c>
@@ -13432,7 +13537,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="142" t="s">
         <v>404</v>
       </c>
@@ -13440,19 +13545,19 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="137"/>
       <c r="B39" s="137"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="137"/>
       <c r="B40" s="137"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="154" t="s">
         <v>405</v>
       </c>
@@ -13462,7 +13567,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A42" s="153" t="s">
         <v>406</v>
       </c>
@@ -13470,7 +13575,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="153" t="s">
         <v>407</v>
       </c>
@@ -13486,7 +13591,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="153" t="s">
         <v>409</v>
       </c>
@@ -13494,7 +13599,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="153" t="s">
         <v>410</v>
       </c>
@@ -13502,7 +13607,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="153" t="s">
         <v>411</v>
       </c>
@@ -13510,326 +13615,326 @@
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="153" t="s">
         <v>412</v>
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="153" t="s">
         <v>413</v>
       </c>
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="153" t="s">
         <v>414</v>
       </c>
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="153" t="s">
         <v>415</v>
       </c>
       <c r="C51" s="10"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
         <v>416</v>
       </c>
       <c r="C52" s="10"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
         <v>417</v>
       </c>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="153" t="s">
         <v>418</v>
       </c>
       <c r="C54" s="10"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="153" t="s">
         <v>419</v>
       </c>
       <c r="C55" s="10"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="153" t="s">
         <v>420</v>
       </c>
       <c r="C56" s="10"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="153" t="s">
         <v>421</v>
       </c>
       <c r="C57" s="10"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="153" t="s">
         <v>422</v>
       </c>
       <c r="C58" s="10"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="153" t="s">
         <v>423</v>
       </c>
       <c r="C59" s="10"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="153" t="s">
         <v>424</v>
       </c>
       <c r="C60" s="10"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="153" t="s">
         <v>425</v>
       </c>
       <c r="C61" s="10"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="153" t="s">
         <v>426</v>
       </c>
       <c r="C62" s="10"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="153" t="s">
         <v>427</v>
       </c>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="153" t="s">
         <v>428</v>
       </c>
       <c r="C64" s="10"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="153" t="s">
         <v>429</v>
       </c>
       <c r="C65" s="10"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="153" t="s">
         <v>430</v>
       </c>
       <c r="C66" s="10"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="153" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="153" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="153" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="153" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="153" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="153" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="153" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="153" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="153" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="153" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="153" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="153" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="153" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="153" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="153" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="153" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="153" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="153" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="153" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="153" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="153" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="153" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="153" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="153" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="153" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="153" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="153" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="153" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="153" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="153" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="153" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="153" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="153" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="153" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="153" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="153" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="153" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="153" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="153" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="154" t="s">
         <v>472</v>
       </c>
@@ -13837,37 +13942,37 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A111" s="143" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="143" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="143" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="143" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="143" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A118" s="159" t="s">
         <v>1434</v>
       </c>
@@ -13875,7 +13980,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="161" t="s">
         <v>1406</v>
       </c>
@@ -13883,7 +13988,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A120" s="161" t="s">
         <v>1408</v>
       </c>
@@ -13891,7 +13996,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="161" t="s">
         <v>1410</v>
       </c>
@@ -13899,7 +14004,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A122" s="161" t="s">
         <v>1412</v>
       </c>
@@ -13907,7 +14012,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A123" s="161" t="s">
         <v>1414</v>
       </c>
@@ -13915,7 +14020,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A124" s="161" t="s">
         <v>1416</v>
       </c>
@@ -13923,7 +14028,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A125" s="161" t="s">
         <v>1418</v>
       </c>
@@ -13931,7 +14036,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A126" s="161" t="s">
         <v>1420</v>
       </c>
@@ -13939,7 +14044,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="161" t="s">
         <v>1422</v>
       </c>
@@ -13947,7 +14052,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="161" t="s">
         <v>1424</v>
       </c>
@@ -13955,7 +14060,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A129" s="161" t="s">
         <v>1426</v>
       </c>
@@ -13963,7 +14068,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="161" t="s">
         <v>1428</v>
       </c>
@@ -13971,7 +14076,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="161" t="s">
         <v>1430</v>
       </c>
@@ -13979,7 +14084,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="161" t="s">
         <v>1432</v>
       </c>
@@ -13987,7 +14092,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="157" t="s">
         <v>1436</v>
       </c>
@@ -13995,157 +14100,157 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A136" s="141" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="141" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="141" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="141" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="141" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="141" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="141" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="141" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="141" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="141" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="141" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="141" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="141" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="141" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="141" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="141" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="141" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="141" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="141" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="141" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="141" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="141" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="141" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="141" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="141" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="141" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="141" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="141" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="141" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="141" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="141" t="s">
         <v>1467</v>
       </c>
@@ -14169,16 +14274,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="149" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="149" customWidth="1"/>
-    <col min="3" max="3" width="51.875" style="149" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="149" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="149" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="149" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="149" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" style="149" customWidth="1"/>
     <col min="5" max="16384" width="10" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="147" t="s">
         <v>308</v>
       </c>
@@ -14192,7 +14297,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="149" t="s">
         <v>484</v>
       </c>
@@ -14206,7 +14311,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
         <v>488</v>
       </c>
@@ -14220,7 +14325,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="149" t="s">
         <v>491</v>
       </c>
@@ -14234,7 +14339,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="149" t="s">
         <v>495</v>
       </c>
@@ -14248,7 +14353,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="149" t="s">
         <v>499</v>
       </c>
@@ -14262,7 +14367,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="149" t="s">
         <v>502</v>
       </c>
@@ -14276,7 +14381,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="149" t="s">
         <v>505</v>
       </c>
@@ -14290,7 +14395,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="149" t="s">
         <v>508</v>
       </c>
@@ -14304,7 +14409,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="149" t="s">
         <v>511</v>
       </c>
@@ -14318,7 +14423,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="149" t="s">
         <v>514</v>
       </c>
@@ -14332,7 +14437,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="149" t="s">
         <v>518</v>
       </c>
@@ -14346,7 +14451,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="149" t="s">
         <v>521</v>
       </c>
@@ -14360,7 +14465,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="149" t="s">
         <v>524</v>
       </c>
@@ -14374,7 +14479,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="149" t="s">
         <v>528</v>
       </c>
@@ -14388,7 +14493,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="149" t="s">
         <v>532</v>
       </c>
@@ -14402,7 +14507,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="149" t="s">
         <v>536</v>
       </c>
@@ -14416,7 +14521,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="149" t="s">
         <v>539</v>
       </c>
@@ -14430,7 +14535,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="149" t="s">
         <v>542</v>
       </c>
@@ -14444,7 +14549,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="149" t="s">
         <v>546</v>
       </c>
@@ -14458,7 +14563,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="149" t="s">
         <v>550</v>
       </c>
@@ -14472,7 +14577,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="149" t="s">
         <v>554</v>
       </c>
@@ -14486,7 +14591,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="149" t="s">
         <v>557</v>
       </c>
@@ -14500,7 +14605,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A24" s="149" t="s">
         <v>560</v>
       </c>
@@ -14514,7 +14619,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="149" t="s">
         <v>563</v>
       </c>
@@ -14528,7 +14633,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="149" t="s">
         <v>566</v>
       </c>
@@ -14542,7 +14647,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="149" t="s">
         <v>569</v>
       </c>
@@ -14556,7 +14661,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="149" t="s">
         <v>572</v>
       </c>
@@ -14570,7 +14675,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="149" t="s">
         <v>575</v>
       </c>
@@ -14584,7 +14689,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="149" t="s">
         <v>579</v>
       </c>
@@ -14598,7 +14703,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="149" t="s">
         <v>583</v>
       </c>
@@ -14612,7 +14717,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="149" t="s">
         <v>587</v>
       </c>
@@ -14626,7 +14731,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="149" t="s">
         <v>591</v>
       </c>
@@ -14640,7 +14745,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="149" t="s">
         <v>594</v>
       </c>
@@ -14654,7 +14759,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="149" t="s">
         <v>598</v>
       </c>
@@ -14668,7 +14773,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="149" t="s">
         <v>602</v>
       </c>
@@ -14682,7 +14787,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="149" t="s">
         <v>605</v>
       </c>
@@ -14696,7 +14801,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="149" t="s">
         <v>609</v>
       </c>
@@ -14710,7 +14815,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="149" t="s">
         <v>613</v>
       </c>
@@ -14724,7 +14829,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="149" t="s">
         <v>616</v>
       </c>
@@ -14738,7 +14843,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="149" t="s">
         <v>620</v>
       </c>
@@ -14752,7 +14857,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="149" t="s">
         <v>624</v>
       </c>
@@ -14766,7 +14871,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="149" t="s">
         <v>627</v>
       </c>
@@ -14780,7 +14885,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="149" t="s">
         <v>630</v>
       </c>
@@ -14794,7 +14899,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="149" t="s">
         <v>633</v>
       </c>
@@ -14808,7 +14913,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="149" t="s">
         <v>636</v>
       </c>
@@ -14822,7 +14927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="149" t="s">
         <v>639</v>
       </c>
@@ -14836,7 +14941,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="149" t="s">
         <v>642</v>
       </c>
@@ -14850,7 +14955,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="149" t="s">
         <v>645</v>
       </c>
@@ -14864,7 +14969,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="149" t="s">
         <v>649</v>
       </c>
@@ -14878,7 +14983,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="149" t="s">
         <v>652</v>
       </c>
@@ -14892,7 +14997,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="149" t="s">
         <v>656</v>
       </c>
@@ -14906,7 +15011,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="149" t="s">
         <v>660</v>
       </c>
@@ -14920,7 +15025,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="149" t="s">
         <v>663</v>
       </c>
@@ -14934,7 +15039,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="149" t="s">
         <v>666</v>
       </c>
@@ -14948,7 +15053,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="149" t="s">
         <v>670</v>
       </c>
@@ -14962,7 +15067,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="149" t="s">
         <v>674</v>
       </c>
@@ -14976,7 +15081,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="149" t="s">
         <v>678</v>
       </c>
@@ -14990,7 +15095,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="149" t="s">
         <v>682</v>
       </c>
@@ -15004,7 +15109,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="149" t="s">
         <v>685</v>
       </c>
@@ -15018,7 +15123,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="149" t="s">
         <v>688</v>
       </c>
@@ -15032,7 +15137,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="149" t="s">
         <v>692</v>
       </c>
@@ -15046,7 +15151,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="149" t="s">
         <v>695</v>
       </c>
@@ -15060,7 +15165,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="149" t="s">
         <v>699</v>
       </c>
@@ -15074,7 +15179,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="149" t="s">
         <v>702</v>
       </c>
@@ -15088,7 +15193,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="149" t="s">
         <v>705</v>
       </c>
@@ -15102,7 +15207,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="149" t="s">
         <v>708</v>
       </c>
@@ -15116,7 +15221,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="149" t="s">
         <v>712</v>
       </c>
@@ -15130,7 +15235,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="149" t="s">
         <v>715</v>
       </c>
@@ -15144,7 +15249,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="149" t="s">
         <v>718</v>
       </c>
@@ -15158,7 +15263,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="149" t="s">
         <v>722</v>
       </c>
@@ -15172,7 +15277,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="149" t="s">
         <v>725</v>
       </c>
@@ -15186,7 +15291,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="149" t="s">
         <v>728</v>
       </c>
@@ -15200,7 +15305,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="149" t="s">
         <v>731</v>
       </c>
@@ -15214,7 +15319,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="149" t="s">
         <v>734</v>
       </c>
@@ -15228,7 +15333,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="149" t="s">
         <v>738</v>
       </c>
@@ -15242,7 +15347,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="149" t="s">
         <v>742</v>
       </c>
@@ -15256,7 +15361,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="149" t="s">
         <v>745</v>
       </c>
@@ -15270,7 +15375,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="149" t="s">
         <v>748</v>
       </c>
@@ -15284,7 +15389,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="149" t="s">
         <v>751</v>
       </c>
@@ -15298,7 +15403,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="149" t="s">
         <v>754</v>
       </c>
@@ -15312,7 +15417,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="149" t="s">
         <v>758</v>
       </c>
@@ -15326,7 +15431,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="149" t="s">
         <v>762</v>
       </c>
@@ -15340,7 +15445,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="149" t="s">
         <v>766</v>
       </c>
@@ -15354,7 +15459,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="149" t="s">
         <v>770</v>
       </c>
@@ -15368,7 +15473,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="149" t="s">
         <v>773</v>
       </c>
@@ -15382,7 +15487,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="149" t="s">
         <v>777</v>
       </c>
@@ -15396,7 +15501,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="149" t="s">
         <v>780</v>
       </c>
@@ -15410,7 +15515,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="149" t="s">
         <v>783</v>
       </c>
@@ -15424,7 +15529,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="149" t="s">
         <v>786</v>
       </c>
@@ -15438,7 +15543,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="149" t="s">
         <v>789</v>
       </c>
@@ -15452,7 +15557,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="149" t="s">
         <v>792</v>
       </c>
@@ -15466,7 +15571,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="149" t="s">
         <v>795</v>
       </c>
@@ -15480,7 +15585,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="149" t="s">
         <v>798</v>
       </c>
@@ -15494,7 +15599,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="149" t="s">
         <v>801</v>
       </c>
@@ -15508,7 +15613,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="149" t="s">
         <v>804</v>
       </c>
@@ -15522,7 +15627,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="149" t="s">
         <v>807</v>
       </c>
@@ -15536,7 +15641,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="149" t="s">
         <v>810</v>
       </c>
@@ -15550,7 +15655,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="149" t="s">
         <v>813</v>
       </c>
@@ -15564,7 +15669,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="149" t="s">
         <v>816</v>
       </c>
@@ -15578,7 +15683,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="149" t="s">
         <v>819</v>
       </c>
@@ -15592,7 +15697,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="149" t="s">
         <v>822</v>
       </c>
@@ -15606,7 +15711,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="149" t="s">
         <v>825</v>
       </c>
@@ -15620,7 +15725,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="149" t="s">
         <v>828</v>
       </c>
@@ -15634,7 +15739,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="149" t="s">
         <v>831</v>
       </c>
@@ -15648,7 +15753,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="149" t="s">
         <v>834</v>
       </c>
@@ -15662,7 +15767,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="149" t="s">
         <v>837</v>
       </c>
@@ -15676,7 +15781,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="149" t="s">
         <v>840</v>
       </c>
@@ -15690,7 +15795,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="149" t="s">
         <v>843</v>
       </c>
@@ -15704,7 +15809,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="149" t="s">
         <v>846</v>
       </c>
@@ -15718,7 +15823,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="149" t="s">
         <v>849</v>
       </c>
@@ -15732,7 +15837,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="149" t="s">
         <v>853</v>
       </c>
@@ -15746,7 +15851,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="149" t="s">
         <v>857</v>
       </c>
@@ -15760,7 +15865,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="149" t="s">
         <v>860</v>
       </c>
@@ -15774,7 +15879,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="149" t="s">
         <v>864</v>
       </c>
@@ -15788,7 +15893,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="149" t="s">
         <v>867</v>
       </c>
@@ -15802,7 +15907,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="149" t="s">
         <v>870</v>
       </c>
@@ -15816,7 +15921,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="149" t="s">
         <v>873</v>
       </c>
@@ -15830,7 +15935,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="149" t="s">
         <v>877</v>
       </c>
@@ -15844,7 +15949,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="149" t="s">
         <v>881</v>
       </c>
@@ -15858,7 +15963,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="149" t="s">
         <v>885</v>
       </c>
@@ -15872,7 +15977,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="149" t="s">
         <v>889</v>
       </c>
@@ -15886,7 +15991,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A123" s="149" t="s">
         <v>892</v>
       </c>
@@ -15900,7 +16005,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="149" t="s">
         <v>895</v>
       </c>
@@ -15914,7 +16019,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="149" t="s">
         <v>898</v>
       </c>
@@ -15928,7 +16033,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="149" t="s">
         <v>901</v>
       </c>
@@ -15942,7 +16047,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="149" t="s">
         <v>904</v>
       </c>
@@ -15956,7 +16061,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="149" t="s">
         <v>907</v>
       </c>
@@ -15970,7 +16075,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="149" t="s">
         <v>910</v>
       </c>
@@ -15984,7 +16089,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="149" t="s">
         <v>913</v>
       </c>
@@ -15998,7 +16103,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="149" t="s">
         <v>917</v>
       </c>
@@ -16012,7 +16117,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="149" t="s">
         <v>921</v>
       </c>
@@ -16026,7 +16131,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="149" t="s">
         <v>925</v>
       </c>
@@ -16040,7 +16145,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="149" t="s">
         <v>928</v>
       </c>
@@ -16054,7 +16159,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="149" t="s">
         <v>931</v>
       </c>
@@ -16068,7 +16173,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="149" t="s">
         <v>934</v>
       </c>
@@ -16082,7 +16187,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="149" t="s">
         <v>938</v>
       </c>
@@ -16096,7 +16201,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="149" t="s">
         <v>941</v>
       </c>
@@ -16110,7 +16215,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="149" t="s">
         <v>944</v>
       </c>
@@ -16124,7 +16229,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="149" t="s">
         <v>948</v>
       </c>
@@ -16138,7 +16243,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="149" t="s">
         <v>952</v>
       </c>
@@ -16152,7 +16257,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="149" t="s">
         <v>955</v>
       </c>
@@ -16166,7 +16271,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="149" t="s">
         <v>958</v>
       </c>
@@ -16180,7 +16285,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="149" t="s">
         <v>961</v>
       </c>
@@ -16194,7 +16299,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="149" t="s">
         <v>964</v>
       </c>
@@ -16208,7 +16313,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="149" t="s">
         <v>967</v>
       </c>
@@ -16222,7 +16327,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="149" t="s">
         <v>970</v>
       </c>
@@ -16236,7 +16341,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="149" t="s">
         <v>973</v>
       </c>
@@ -16250,7 +16355,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="149" t="s">
         <v>976</v>
       </c>
@@ -16264,7 +16369,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="149" t="s">
         <v>979</v>
       </c>
@@ -16278,7 +16383,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="149" t="s">
         <v>982</v>
       </c>
@@ -16292,7 +16397,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="149" t="s">
         <v>985</v>
       </c>
@@ -16306,7 +16411,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="149" t="s">
         <v>988</v>
       </c>
@@ -16320,7 +16425,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="149" t="s">
         <v>991</v>
       </c>
@@ -16334,7 +16439,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="149" t="s">
         <v>994</v>
       </c>
@@ -16348,7 +16453,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="149" t="s">
         <v>997</v>
       </c>
@@ -16362,7 +16467,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="149" t="s">
         <v>1000</v>
       </c>
@@ -16376,7 +16481,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="149" t="s">
         <v>1003</v>
       </c>
@@ -16390,7 +16495,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="149" t="s">
         <v>1007</v>
       </c>
@@ -16404,7 +16509,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="149" t="s">
         <v>1010</v>
       </c>
@@ -16418,7 +16523,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="149" t="s">
         <v>1014</v>
       </c>
@@ -16432,7 +16537,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="149" t="s">
         <v>1017</v>
       </c>
@@ -16446,7 +16551,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="149" t="s">
         <v>1020</v>
       </c>
@@ -16460,7 +16565,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="149" t="s">
         <v>1024</v>
       </c>
@@ -16474,7 +16579,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="149" t="s">
         <v>1027</v>
       </c>
@@ -16488,7 +16593,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="149" t="s">
         <v>1031</v>
       </c>
@@ -16502,7 +16607,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="149" t="s">
         <v>1034</v>
       </c>
@@ -16516,7 +16621,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="149" t="s">
         <v>1037</v>
       </c>
@@ -16530,7 +16635,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="149" t="s">
         <v>1040</v>
       </c>
@@ -16544,7 +16649,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="149" t="s">
         <v>1043</v>
       </c>
@@ -16558,7 +16663,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="149" t="s">
         <v>1046</v>
       </c>
@@ -16572,7 +16677,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="149" t="s">
         <v>1050</v>
       </c>
@@ -16586,7 +16691,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="149" t="s">
         <v>1054</v>
       </c>
@@ -16600,7 +16705,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="149" t="s">
         <v>1058</v>
       </c>
@@ -16614,7 +16719,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="149" t="s">
         <v>1061</v>
       </c>
@@ -16628,7 +16733,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="149" t="s">
         <v>1065</v>
       </c>
@@ -16642,7 +16747,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="149" t="s">
         <v>1068</v>
       </c>
@@ -16656,7 +16761,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="149" t="s">
         <v>1071</v>
       </c>
@@ -16670,7 +16775,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="149" t="s">
         <v>1075</v>
       </c>
@@ -16684,7 +16789,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="149" t="s">
         <v>1079</v>
       </c>
@@ -16698,7 +16803,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="149" t="s">
         <v>1082</v>
       </c>
@@ -16712,7 +16817,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="149" t="s">
         <v>1085</v>
       </c>
@@ -16726,7 +16831,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="149" t="s">
         <v>1088</v>
       </c>
@@ -16740,7 +16845,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="149" t="s">
         <v>1091</v>
       </c>
@@ -16754,7 +16859,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="149" t="s">
         <v>1095</v>
       </c>
@@ -16768,7 +16873,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A186" s="149" t="s">
         <v>1098</v>
       </c>
@@ -16782,7 +16887,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="149" t="s">
         <v>1101</v>
       </c>
@@ -16796,7 +16901,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="149" t="s">
         <v>1104</v>
       </c>
@@ -16810,7 +16915,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A189" s="149" t="s">
         <v>1107</v>
       </c>
@@ -16824,7 +16929,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="149" t="s">
         <v>1110</v>
       </c>
@@ -16838,7 +16943,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="149" t="s">
         <v>1113</v>
       </c>
@@ -16852,7 +16957,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="149" t="s">
         <v>1116</v>
       </c>
@@ -16866,7 +16971,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="149" t="s">
         <v>1119</v>
       </c>
@@ -16880,7 +16985,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="149" t="s">
         <v>1122</v>
       </c>
@@ -16894,7 +16999,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="149" t="s">
         <v>1125</v>
       </c>
@@ -16908,7 +17013,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="149" t="s">
         <v>1128</v>
       </c>
@@ -16922,7 +17027,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="149" t="s">
         <v>1131</v>
       </c>
@@ -16936,7 +17041,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A198" s="149" t="s">
         <v>1134</v>
       </c>
@@ -16950,7 +17055,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="149" t="s">
         <v>1138</v>
       </c>
@@ -16964,7 +17069,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A200" s="149" t="s">
         <v>1141</v>
       </c>
@@ -16978,7 +17083,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="149" t="s">
         <v>1145</v>
       </c>
@@ -16992,7 +17097,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="149" t="s">
         <v>1148</v>
       </c>
@@ -17006,7 +17111,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A203" s="149" t="s">
         <v>1151</v>
       </c>
@@ -17020,7 +17125,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="149" t="s">
         <v>1154</v>
       </c>
@@ -17034,7 +17139,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="149" t="s">
         <v>1157</v>
       </c>
@@ -17048,7 +17153,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="149" t="s">
         <v>1160</v>
       </c>
@@ -17062,7 +17167,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="149" t="s">
         <v>1163</v>
       </c>
@@ -17076,7 +17181,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="149" t="s">
         <v>1166</v>
       </c>
@@ -17090,7 +17195,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A209" s="149" t="s">
         <v>1169</v>
       </c>
@@ -17104,7 +17209,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="149" t="s">
         <v>1172</v>
       </c>
@@ -17118,7 +17223,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="149" t="s">
         <v>1175</v>
       </c>
@@ -17132,7 +17237,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="149" t="s">
         <v>1178</v>
       </c>
@@ -17146,7 +17251,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="149" t="s">
         <v>1181</v>
       </c>
@@ -17160,7 +17265,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="149" t="s">
         <v>1184</v>
       </c>
@@ -17174,7 +17279,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="149" t="s">
         <v>1187</v>
       </c>
@@ -17188,7 +17293,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="149" t="s">
         <v>1190</v>
       </c>
@@ -17202,7 +17307,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="149" t="s">
         <v>1193</v>
       </c>
@@ -17216,7 +17321,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="149" t="s">
         <v>1196</v>
       </c>
@@ -17230,7 +17335,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="149" t="s">
         <v>1199</v>
       </c>
@@ -17244,7 +17349,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="149" t="s">
         <v>1202</v>
       </c>
@@ -17258,7 +17363,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="149" t="s">
         <v>1205</v>
       </c>
@@ -17272,7 +17377,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="149" t="s">
         <v>1208</v>
       </c>
@@ -17286,7 +17391,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A223" s="149" t="s">
         <v>1212</v>
       </c>
@@ -17300,7 +17405,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="149" t="s">
         <v>1215</v>
       </c>
@@ -17314,7 +17419,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A225" s="149" t="s">
         <v>1218</v>
       </c>
@@ -17328,7 +17433,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A226" s="149" t="s">
         <v>1221</v>
       </c>
@@ -17342,7 +17447,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="149" t="s">
         <v>1224</v>
       </c>
@@ -17356,7 +17461,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="149" t="s">
         <v>1227</v>
       </c>
@@ -17370,7 +17475,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A229" s="149" t="s">
         <v>1230</v>
       </c>
@@ -17384,7 +17489,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="149" t="s">
         <v>1234</v>
       </c>
@@ -17398,7 +17503,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A231" s="149" t="s">
         <v>1238</v>
       </c>
@@ -17412,7 +17517,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A232" s="149" t="s">
         <v>1241</v>
       </c>
@@ -17426,7 +17531,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="149" t="s">
         <v>1245</v>
       </c>
@@ -17440,7 +17545,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A234" s="149" t="s">
         <v>1247</v>
       </c>
@@ -17454,7 +17559,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A235" s="149" t="s">
         <v>1250</v>
       </c>
@@ -17468,7 +17573,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="149" t="s">
         <v>1253</v>
       </c>
@@ -17482,7 +17587,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="149" t="s">
         <v>1256</v>
       </c>
@@ -17496,7 +17601,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="149" t="s">
         <v>1260</v>
       </c>
@@ -17510,7 +17615,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="149" t="s">
         <v>1263</v>
       </c>
@@ -17524,7 +17629,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="149" t="s">
         <v>1266</v>
       </c>
@@ -17538,7 +17643,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="149" t="s">
         <v>1269</v>
       </c>
@@ -17552,7 +17657,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="149" t="s">
         <v>1272</v>
       </c>
@@ -17566,7 +17671,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="149" t="s">
         <v>1275</v>
       </c>
@@ -17580,7 +17685,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="149" t="s">
         <v>1279</v>
       </c>
@@ -17594,7 +17699,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A245" s="149" t="s">
         <v>1283</v>
       </c>
@@ -17608,7 +17713,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="149" t="s">
         <v>1287</v>
       </c>
@@ -17622,7 +17727,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="149" t="s">
         <v>1290</v>
       </c>
@@ -17636,7 +17741,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="149" t="s">
         <v>1293</v>
       </c>
@@ -17650,7 +17755,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="149" t="s">
         <v>1296</v>
       </c>
@@ -17664,7 +17769,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A250" s="149" t="s">
         <v>1299</v>
       </c>
@@ -17678,7 +17783,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="149" t="s">
         <v>1303</v>
       </c>
@@ -17692,7 +17797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="149" t="s">
         <v>1306</v>
       </c>
@@ -17706,7 +17811,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="149" t="s">
         <v>1309</v>
       </c>
@@ -17720,7 +17825,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A254" s="149" t="s">
         <v>1312</v>
       </c>
@@ -17734,7 +17839,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A255" s="149" t="s">
         <v>1315</v>
       </c>
@@ -17748,7 +17853,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A256" s="149" t="s">
         <v>1318</v>
       </c>
@@ -17762,7 +17867,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="149" t="s">
         <v>1321</v>
       </c>
@@ -17776,7 +17881,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="149" t="s">
         <v>1324</v>
       </c>
@@ -17790,7 +17895,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A259" s="149" t="s">
         <v>1327</v>
       </c>
@@ -17804,7 +17909,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A260" s="149" t="s">
         <v>1330</v>
       </c>
@@ -17818,7 +17923,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="149" t="s">
         <v>1334</v>
       </c>
@@ -17832,7 +17937,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="149" t="s">
         <v>1337</v>
       </c>
@@ -17846,7 +17951,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="149" t="s">
         <v>1341</v>
       </c>
@@ -17860,7 +17965,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="149" t="s">
         <v>1344</v>
       </c>
@@ -17874,7 +17979,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="149" t="s">
         <v>1348</v>
       </c>
@@ -17888,7 +17993,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="149" t="s">
         <v>1351</v>
       </c>
@@ -17902,7 +18007,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="149" t="s">
         <v>1354</v>
       </c>
@@ -17930,20 +18035,20 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="40.875" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>343</v>
       </c>
@@ -17956,7 +18061,7 @@
       <c r="H1" s="51"/>
       <c r="I1" s="51"/>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -17967,20 +18072,20 @@
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
     </row>
-    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175" t="s">
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="176" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -17991,20 +18096,20 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
     </row>
-    <row r="5" spans="1:9" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="171" t="s">
+    <row r="5" spans="1:9" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="172" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -18015,20 +18120,20 @@
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="176" t="s">
+    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="177" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="178"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -18039,7 +18144,7 @@
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>236</v>
       </c>
@@ -18052,18 +18157,18 @@
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="175"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
     </row>
-    <row r="11" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>237</v>
       </c>
@@ -18092,7 +18197,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
       <c r="B12" s="66"/>
       <c r="C12" s="56"/>
@@ -18103,7 +18208,7 @@
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -18116,7 +18221,7 @@
       <c r="H13" s="64"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -18139,7 +18244,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -18152,7 +18257,7 @@
       <c r="H15" s="61"/>
       <c r="I15" s="60"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -18163,7 +18268,7 @@
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -18174,7 +18279,7 @@
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -18185,7 +18290,7 @@
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -18196,7 +18301,7 @@
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -18207,7 +18312,7 @@
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -18218,7 +18323,7 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
     </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -18229,7 +18334,7 @@
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -18240,7 +18345,7 @@
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -18251,7 +18356,7 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -18262,7 +18367,7 @@
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -18273,7 +18378,7 @@
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="69"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -18284,7 +18389,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -18295,7 +18400,7 @@
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -18306,7 +18411,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -18317,7 +18422,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -18328,7 +18433,7 @@
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
     </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -18339,7 +18444,7 @@
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>352</v>
       </c>
@@ -18372,20 +18477,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -18393,7 +18498,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="79.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>356</v>
       </c>
@@ -18431,7 +18536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>211</v>
       </c>
@@ -18465,7 +18570,7 @@
       </c>
       <c r="L3" s="76"/>
     </row>
-    <row r="4" spans="1:12" s="74" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="74" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>280</v>
       </c>
@@ -18481,7 +18586,7 @@
       <c r="K4" s="76"/>
       <c r="L4" s="76"/>
     </row>
-    <row r="5" spans="1:12" s="74" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="74" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
         <v>164</v>
       </c>
@@ -18509,7 +18614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>151</v>
       </c>
@@ -18539,7 +18644,7 @@
       </c>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>170</v>
       </c>
@@ -18575,7 +18680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
@@ -18605,7 +18710,7 @@
       <c r="K8" s="76"/>
       <c r="L8" s="76"/>
     </row>
-    <row r="9" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>150</v>
       </c>
@@ -18635,7 +18740,7 @@
       </c>
       <c r="L9" s="76"/>
     </row>
-    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>177</v>
       </c>
@@ -18657,7 +18762,7 @@
       <c r="K10" s="76"/>
       <c r="L10" s="76"/>
     </row>
-    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>109</v>
       </c>
@@ -18685,7 +18790,7 @@
       </c>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>123</v>
       </c>
@@ -18717,7 +18822,7 @@
       </c>
       <c r="L12" s="76"/>
     </row>
-    <row r="13" spans="1:12" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>124</v>
       </c>
@@ -18747,7 +18852,7 @@
       </c>
       <c r="L13" s="76"/>
     </row>
-    <row r="14" spans="1:12" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>155</v>
       </c>
@@ -18771,7 +18876,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>132</v>
       </c>
@@ -18797,7 +18902,7 @@
       </c>
       <c r="L15" s="76"/>
     </row>
-    <row r="16" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>89</v>
       </c>
@@ -18829,7 +18934,7 @@
       </c>
       <c r="L16" s="76"/>
     </row>
-    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>90</v>
       </c>
@@ -18851,7 +18956,7 @@
       <c r="K17" s="76"/>
       <c r="L17" s="76"/>
     </row>
-    <row r="18" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>163</v>
       </c>
@@ -18875,7 +18980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>176</v>
       </c>
@@ -18903,7 +19008,7 @@
       </c>
       <c r="L19" s="76"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>171</v>
       </c>
@@ -18927,7 +19032,7 @@
       <c r="K20" s="76"/>
       <c r="L20" s="76"/>
     </row>
-    <row r="21" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>84</v>
       </c>
@@ -18957,7 +19062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>254</v>
       </c>
@@ -18973,7 +19078,7 @@
       <c r="K22" s="76"/>
       <c r="L22" s="76"/>
     </row>
-    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>255</v>
       </c>
@@ -18989,7 +19094,7 @@
       <c r="K23" s="76"/>
       <c r="L23" s="76"/>
     </row>
-    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>256</v>
       </c>
@@ -19005,7 +19110,7 @@
       <c r="K24" s="76"/>
       <c r="L24" s="76"/>
     </row>
-    <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>258</v>
       </c>
@@ -19021,7 +19126,7 @@
       <c r="K25" s="76"/>
       <c r="L25" s="76"/>
     </row>
-    <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>259</v>
       </c>
@@ -19037,7 +19142,7 @@
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
     </row>
-    <row r="27" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>260</v>
       </c>
@@ -19053,7 +19158,7 @@
       <c r="K27" s="76"/>
       <c r="L27" s="76"/>
     </row>
-    <row r="28" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>311</v>
       </c>
@@ -19069,7 +19174,7 @@
       <c r="K28" s="76"/>
       <c r="L28" s="76"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>261</v>
       </c>
@@ -19085,7 +19190,7 @@
       <c r="K29" s="76"/>
       <c r="L29" s="76"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>262</v>
       </c>
@@ -19101,7 +19206,7 @@
       <c r="K30" s="76"/>
       <c r="L30" s="76"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>263</v>
       </c>
@@ -19117,7 +19222,7 @@
       <c r="K31" s="76"/>
       <c r="L31" s="76"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>264</v>
       </c>
@@ -19133,7 +19238,7 @@
       <c r="K32" s="76"/>
       <c r="L32" s="76"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>265</v>
       </c>
@@ -19149,7 +19254,7 @@
       <c r="K33" s="76"/>
       <c r="L33" s="76"/>
     </row>
-    <row r="34" spans="1:12" ht="45.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>276</v>
       </c>
@@ -19177,7 +19282,7 @@
       </c>
       <c r="L34" s="76"/>
     </row>
-    <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>242</v>
       </c>
@@ -19207,7 +19312,7 @@
       </c>
       <c r="L35" s="76"/>
     </row>
-    <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>243</v>
       </c>
@@ -19239,7 +19344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>95</v>
       </c>
@@ -19259,7 +19364,7 @@
       <c r="K37" s="76"/>
       <c r="L37" s="76"/>
     </row>
-    <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>244</v>
       </c>
@@ -19279,7 +19384,7 @@
       <c r="K38" s="76"/>
       <c r="L38" s="76"/>
     </row>
-    <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
         <v>245</v>
       </c>
@@ -19295,7 +19400,7 @@
       <c r="K39" s="76"/>
       <c r="L39" s="76"/>
     </row>
-    <row r="40" spans="1:12" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
         <v>246</v>
       </c>
@@ -19311,7 +19416,7 @@
       <c r="K40" s="76"/>
       <c r="L40" s="76"/>
     </row>
-    <row r="41" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>180</v>
       </c>
@@ -19341,7 +19446,7 @@
       </c>
       <c r="L41" s="76"/>
     </row>
-    <row r="42" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>182</v>
       </c>
@@ -19371,7 +19476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>181</v>
       </c>
@@ -19395,7 +19500,7 @@
       </c>
       <c r="L43" s="76"/>
     </row>
-    <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>179</v>
       </c>
@@ -19419,7 +19524,7 @@
       </c>
       <c r="L44" s="76"/>
     </row>
-    <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>209</v>
       </c>
@@ -19445,7 +19550,7 @@
       </c>
       <c r="L45" s="76"/>
     </row>
-    <row r="46" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>208</v>
       </c>
@@ -19471,7 +19576,7 @@
       </c>
       <c r="L46" s="76"/>
     </row>
-    <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>206</v>
       </c>
@@ -19493,7 +19598,7 @@
       </c>
       <c r="L47" s="76"/>
     </row>
-    <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>207</v>
       </c>
@@ -19509,7 +19614,7 @@
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
     </row>
-    <row r="49" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>156</v>
       </c>
@@ -19537,7 +19642,7 @@
       </c>
       <c r="L49" s="76"/>
     </row>
-    <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>157</v>
       </c>
@@ -19563,7 +19668,7 @@
       </c>
       <c r="L50" s="76"/>
     </row>
-    <row r="51" spans="1:12" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>158</v>
       </c>
@@ -19583,7 +19688,7 @@
       <c r="K51" s="76"/>
       <c r="L51" s="76"/>
     </row>
-    <row r="52" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
         <v>88</v>
       </c>
@@ -19609,7 +19714,7 @@
       </c>
       <c r="L52" s="76"/>
     </row>
-    <row r="53" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>257</v>
       </c>
@@ -19627,7 +19732,7 @@
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
     </row>
-    <row r="54" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>161</v>
       </c>
@@ -19653,7 +19758,7 @@
       <c r="K54" s="76"/>
       <c r="L54" s="76"/>
     </row>
-    <row r="55" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
         <v>162</v>
       </c>
@@ -19673,7 +19778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>204</v>
       </c>
@@ -19697,7 +19802,7 @@
       </c>
       <c r="L56" s="76"/>
     </row>
-    <row r="57" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>172</v>
       </c>
@@ -19717,7 +19822,7 @@
       <c r="K57" s="76"/>
       <c r="L57" s="76"/>
     </row>
-    <row r="58" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
         <v>117</v>
       </c>
@@ -19741,7 +19846,7 @@
       </c>
       <c r="L58" s="76"/>
     </row>
-    <row r="59" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
         <v>173</v>
       </c>
@@ -19761,7 +19866,7 @@
       <c r="K59" s="76"/>
       <c r="L59" s="76"/>
     </row>
-    <row r="60" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
         <v>114</v>
       </c>
@@ -19787,7 +19892,7 @@
       </c>
       <c r="L60" s="76"/>
     </row>
-    <row r="61" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
         <v>174</v>
       </c>
@@ -19811,7 +19916,7 @@
       </c>
       <c r="L61" s="76"/>
     </row>
-    <row r="62" spans="1:12" ht="22.8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>175</v>
       </c>
@@ -19835,7 +19940,7 @@
       <c r="K62" s="76"/>
       <c r="L62" s="76"/>
     </row>
-    <row r="63" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>49</v>
       </c>

--- a/PhysicalSample.xlsx
+++ b/PhysicalSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="180" windowWidth="20385" windowHeight="6750" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="810" yWindow="180" windowWidth="20385" windowHeight="6750" tabRatio="658" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -3682,7 +3682,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1484">
   <si>
     <t>IGSN</t>
   </si>
@@ -7875,9 +7875,6 @@
   </si>
   <si>
     <t>Other information about specimen curation--contact information for curator, previous history of curation</t>
-  </si>
-  <si>
-    <t>Section</t>
   </si>
   <si>
     <t>LocationDescription</t>
@@ -10581,7 +10578,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -10608,7 +10605,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="90" x14ac:dyDescent="0.2">
@@ -10616,7 +10613,7 @@
         <v>185</v>
       </c>
       <c r="C4" s="136" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.2">
@@ -10807,7 +10804,7 @@
     </row>
     <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B20" s="74" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>471</v>
@@ -10822,7 +10819,7 @@
     <row r="21" spans="2:5" ht="36" x14ac:dyDescent="0.2">
       <c r="B21" s="74"/>
       <c r="C21" s="81" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>192</v>
@@ -11250,8 +11247,8 @@
   </sheetPr>
   <dimension ref="A1:BF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11285,7 +11282,7 @@
     <col min="27" max="27" width="15.140625" style="26" customWidth="1"/>
     <col min="28" max="28" width="5.140625" style="26" customWidth="1"/>
     <col min="29" max="29" width="4.7109375" style="26" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" style="26" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="26" customWidth="1"/>
     <col min="31" max="31" width="11.28515625" style="26" customWidth="1"/>
     <col min="32" max="32" width="6.42578125" style="26" customWidth="1"/>
     <col min="33" max="33" width="7.42578125" style="26" customWidth="1"/>
@@ -11373,7 +11370,7 @@
       <c r="AY1" s="13"/>
       <c r="BA1" s="20"/>
       <c r="BB1" s="20" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BC1" s="20"/>
       <c r="BD1" s="20"/>
@@ -11401,10 +11398,10 @@
         <v>164</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I2" s="102" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="J2" s="151" t="s">
         <v>124</v>
@@ -11467,7 +11464,7 @@
         <v>257</v>
       </c>
       <c r="AD2" s="156" t="s">
-        <v>1355</v>
+        <v>304</v>
       </c>
       <c r="AE2" s="156" t="s">
         <v>258</v>
@@ -11482,7 +11479,7 @@
         <v>261</v>
       </c>
       <c r="AI2" s="157" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AJ2" s="158" t="s">
         <v>241</v>
@@ -11497,25 +11494,25 @@
         <v>243</v>
       </c>
       <c r="AN2" s="159" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AO2" s="160" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AP2" s="160" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
         <v>1359</v>
       </c>
-      <c r="AP2" s="160" t="s">
-        <v>1460</v>
-      </c>
-      <c r="AQ2" s="31" t="s">
+      <c r="AR2" s="16" t="s">
         <v>1360</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AS2" s="16" t="s">
         <v>1361</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AT2" s="16" t="s">
         <v>1362</v>
-      </c>
-      <c r="AT2" s="16" t="s">
-        <v>1363</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>158</v>
@@ -11533,10 +11530,10 @@
         <v>162</v>
       </c>
       <c r="AZ2" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA2" s="31" t="s">
         <v>1366</v>
-      </c>
-      <c r="BA2" s="31" t="s">
-        <v>1367</v>
       </c>
       <c r="BB2" s="31" t="s">
         <v>117</v>
@@ -11545,7 +11542,7 @@
         <v>173</v>
       </c>
       <c r="BD2" s="31" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BE2" s="22" t="s">
         <v>354</v>
@@ -11623,8 +11620,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11640,7 +11637,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="165" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
@@ -11653,7 +11650,7 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="166" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
@@ -11669,7 +11666,7 @@
         <v>297</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>298</v>
@@ -11700,10 +11697,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F4" s="129" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.2">
@@ -11723,7 +11720,7 @@
         <v>355</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84" x14ac:dyDescent="0.2">
@@ -11743,7 +11740,7 @@
         <v>310</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="99" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -11799,7 +11796,7 @@
         <v>359</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="84" x14ac:dyDescent="0.2">
@@ -11822,7 +11819,7 @@
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B11" s="122" t="s">
         <v>302</v>
@@ -11834,13 +11831,13 @@
         <v>300</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B12" s="122" t="s">
         <v>301</v>
@@ -11852,7 +11849,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -11870,10 +11867,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -11893,7 +11890,7 @@
         <v>472</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -11910,10 +11907,10 @@
         <v>366</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.2">
@@ -11930,10 +11927,10 @@
         <v>300</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -11968,10 +11965,10 @@
         <v>366</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.2">
@@ -11988,10 +11985,10 @@
         <v>300</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -12011,7 +12008,7 @@
         <v>313</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.2">
@@ -12049,7 +12046,7 @@
         <v>314</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.2">
@@ -12089,7 +12086,7 @@
         <v>1354</v>
       </c>
       <c r="F24" s="129" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -12144,7 +12141,7 @@
         <v>356</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.2">
@@ -12164,7 +12161,7 @@
         <v>357</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="108" x14ac:dyDescent="0.2">
@@ -12184,7 +12181,7 @@
         <v>318</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -12244,7 +12241,7 @@
     </row>
     <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>1355</v>
+        <v>304</v>
       </c>
       <c r="B33" s="122" t="s">
         <v>305</v>
@@ -12331,7 +12328,7 @@
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>302</v>
@@ -12358,10 +12355,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="98" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="84" x14ac:dyDescent="0.2">
@@ -12378,10 +12375,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.2">
@@ -12398,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="98" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -12422,7 +12419,7 @@
     </row>
     <row r="43" spans="1:6" ht="108" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>302</v>
@@ -12434,15 +12431,15 @@
         <v>300</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>305</v>
@@ -12457,12 +12454,12 @@
         <v>360</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>305</v>
@@ -12480,7 +12477,7 @@
     </row>
     <row r="46" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>302</v>
@@ -12492,13 +12489,13 @@
         <v>300</v>
       </c>
       <c r="E46" s="98" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B47" s="122" t="s">
         <v>302</v>
@@ -12513,12 +12510,12 @@
         <v>326</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B48" s="122" t="s">
         <v>302</v>
@@ -12533,12 +12530,12 @@
         <v>327</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B49" s="122" t="s">
         <v>302</v>
@@ -12550,10 +12547,10 @@
         <v>300</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>1365</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -12622,7 +12619,7 @@
         <v>329</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -12645,7 +12642,7 @@
     </row>
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B55" s="122" t="s">
         <v>302</v>
@@ -12663,7 +12660,7 @@
     </row>
     <row r="56" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B56" s="122" t="s">
         <v>301</v>
@@ -12717,7 +12714,7 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B59" s="122" t="s">
         <v>303</v>
@@ -12747,7 +12744,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -12765,10 +12762,10 @@
         <v>300</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -12900,7 +12897,7 @@
         <v>367</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -13024,7 +13021,7 @@
         <v>385</v>
       </c>
       <c r="B27" s="127" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C27" s="11"/>
     </row>
@@ -13138,7 +13135,7 @@
         <v>396</v>
       </c>
       <c r="B41" s="127" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -13515,7 +13512,7 @@
         <v>463</v>
       </c>
       <c r="B110" s="127" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -13550,285 +13547,285 @@
     </row>
     <row r="118" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A118" s="130" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B118" s="131" t="s">
         <v>1425</v>
-      </c>
-      <c r="B118" s="131" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="132" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B119" s="133" t="s">
         <v>1397</v>
-      </c>
-      <c r="B119" s="133" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A120" s="132" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B120" s="133" t="s">
         <v>1399</v>
-      </c>
-      <c r="B120" s="133" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="132" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B121" s="133" t="s">
         <v>1401</v>
-      </c>
-      <c r="B121" s="133" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A122" s="132" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B122" s="133" t="s">
         <v>1403</v>
-      </c>
-      <c r="B122" s="133" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A123" s="132" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B123" s="133" t="s">
         <v>1405</v>
-      </c>
-      <c r="B123" s="133" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A124" s="132" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B124" s="133" t="s">
         <v>1407</v>
-      </c>
-      <c r="B124" s="133" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A125" s="132" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B125" s="133" t="s">
         <v>1409</v>
-      </c>
-      <c r="B125" s="133" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A126" s="132" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B126" s="133" t="s">
         <v>1411</v>
-      </c>
-      <c r="B126" s="133" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="132" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B127" s="133" t="s">
         <v>1413</v>
-      </c>
-      <c r="B127" s="133" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="132" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B128" s="133" t="s">
         <v>1415</v>
-      </c>
-      <c r="B128" s="133" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A129" s="132" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B129" s="133" t="s">
         <v>1417</v>
-      </c>
-      <c r="B129" s="133" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="132" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B130" s="133" t="s">
         <v>1419</v>
-      </c>
-      <c r="B130" s="133" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="132" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B131" s="133" t="s">
         <v>1421</v>
-      </c>
-      <c r="B131" s="133" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="132" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B132" s="133" t="s">
         <v>1423</v>
-      </c>
-      <c r="B132" s="133" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="128" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B135" s="127" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A136" s="114" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="114" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="114" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="114" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="114" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="114" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="114" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="114" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="114" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="114" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="114" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="114" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="114" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="114" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="114" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="114" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="114" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="114" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="114" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="114" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="114" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="114" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="114" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="114" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="114" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="114" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="114" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="114" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="114" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="114" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="114" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
   </sheetData>
@@ -17607,7 +17604,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -19684,13 +19681,13 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF2FC82-BC39-4358-8A56-08290A6D4EDC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PhysicalSample.xlsx
+++ b/PhysicalSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="180" windowWidth="20385" windowHeight="6750" tabRatio="658" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="810" yWindow="180" windowWidth="20385" windowHeight="6750" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="5" r:id="rId1"/>
@@ -3682,7 +3682,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1485">
   <si>
     <t>IGSN</t>
   </si>
@@ -8230,18 +8230,12 @@
     <t>Latitude of sampling location in decimal degrees to at least 4 decimal places; if sample collected from extended region, this should be center point.</t>
   </si>
   <si>
-    <t>Recommend use of WGS 84.  Necessary information for specifying the data used for latitude and longitude. Recommended usage is EPSG code, for which syntax must be "EPSG:NNNN" where NNNN is the EPSG code. Code for WGS 84 is 'EPSG:4326'</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
     <t>This workbook documents a content model for basic data characterizing a physical sample. The content model is based on consideration of content requested for SESAR, EarthTime, GeoSciML, Storet, ISO19115.  Focus is on terrestrial (land based) samples. Content model includes sufficient information for SESAR registration (see http://www.geosamples.org/), but is not complete with all possible content in the SESAR sample data model.</t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
     <t>synchronize SampleFeature worksheet column headings with FieldList worksheet; add SamplingFeatureName and SamplingFeatureURI; prepare to move change management to GitHub</t>
   </si>
   <si>
@@ -8264,20 +8258,38 @@
   </si>
   <si>
     <t>Registration metadata</t>
+  </si>
+  <si>
+    <t>The spatial reference system. An EPSG code should be provided to identify the spatial reference system (SRS) for latitude and longitude.  EPSG:4326 is the identifer for WGS84, and should thus be the text indicated in this field. Spatial reference systems specify a datum, a reference ellipsoid, and a coordinate system.
+EPSG stands for European Petroleum Survey Group. EPSSG codes can be dereferenced by putting the code in this URL (replace 4326) http://spatialreference.org/ref/epsg/4326/</t>
+  </si>
+  <si>
+    <t>Edited SRS description in FieldList tab for clarity (recommended use of EPSG code).</t>
+  </si>
+  <si>
+    <t>Christy Caudill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\Thh:mm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8641,8 +8653,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8901,8 +8917,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -9313,105 +9340,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9421,12 +9514,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="30" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9434,73 +9527,73 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="34" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="30" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9514,42 +9607,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="53"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="22" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="22" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="23" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="12" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -9557,76 +9706,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="11" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="53" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="30" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9638,145 +9731,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="31" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="31" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="31" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="31" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="53" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="2" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="2" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="92"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="92" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="30"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="30"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="5" xfId="30" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="5" xfId="30" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="5" xfId="30" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="5" xfId="30" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="94" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="30" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="94" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="30" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="30" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="30" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9785,177 +9878,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="6" xfId="31" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="31" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="31" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="30" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="31" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="31" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="32" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="32" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="33" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="33" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="28" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="28" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="29" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="29" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="30" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="30" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="108" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="108" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="2" xfId="113" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="2" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="47" borderId="2" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="144">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="52"/>
     <cellStyle name="20% - Accent1 2 2" xfId="61"/>
     <cellStyle name="20% - Accent1 3" xfId="60"/>
+    <cellStyle name="20% - Accent1 4" xfId="96"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="51"/>
     <cellStyle name="20% - Accent2 2 2" xfId="63"/>
     <cellStyle name="20% - Accent2 3" xfId="62"/>
+    <cellStyle name="20% - Accent2 4" xfId="98"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="50"/>
     <cellStyle name="20% - Accent3 2 2" xfId="65"/>
     <cellStyle name="20% - Accent3 3" xfId="64"/>
+    <cellStyle name="20% - Accent3 4" xfId="100"/>
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="49"/>
     <cellStyle name="20% - Accent4 2 2" xfId="67"/>
     <cellStyle name="20% - Accent4 3" xfId="66"/>
+    <cellStyle name="20% - Accent4 4" xfId="102"/>
     <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="41"/>
     <cellStyle name="20% - Accent5 2 2" xfId="69"/>
     <cellStyle name="20% - Accent5 3" xfId="68"/>
+    <cellStyle name="20% - Accent5 4" xfId="104"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="48"/>
     <cellStyle name="20% - Accent6 2 2" xfId="71"/>
     <cellStyle name="20% - Accent6 3" xfId="70"/>
+    <cellStyle name="20% - Accent6 4" xfId="106"/>
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="47"/>
     <cellStyle name="40% - Accent1 2 2" xfId="73"/>
     <cellStyle name="40% - Accent1 3" xfId="72"/>
+    <cellStyle name="40% - Accent1 4" xfId="97"/>
     <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="46"/>
     <cellStyle name="40% - Accent2 2 2" xfId="75"/>
     <cellStyle name="40% - Accent2 3" xfId="74"/>
+    <cellStyle name="40% - Accent2 4" xfId="99"/>
     <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="45"/>
     <cellStyle name="40% - Accent3 2 2" xfId="77"/>
     <cellStyle name="40% - Accent3 3" xfId="76"/>
+    <cellStyle name="40% - Accent3 4" xfId="101"/>
     <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="44"/>
     <cellStyle name="40% - Accent4 2 2" xfId="79"/>
     <cellStyle name="40% - Accent4 3" xfId="78"/>
+    <cellStyle name="40% - Accent4 4" xfId="103"/>
     <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="43"/>
     <cellStyle name="40% - Accent5 2 2" xfId="81"/>
     <cellStyle name="40% - Accent5 3" xfId="80"/>
+    <cellStyle name="40% - Accent5 4" xfId="105"/>
     <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="42"/>
     <cellStyle name="40% - Accent6 2 2" xfId="83"/>
     <cellStyle name="40% - Accent6 3" xfId="82"/>
+    <cellStyle name="40% - Accent6 4" xfId="107"/>
     <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
@@ -9971,6 +10086,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="depth" xfId="109"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -9983,26 +10099,62 @@
     <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="110"/>
+    <cellStyle name="Normal 11" xfId="111"/>
+    <cellStyle name="Normal 11 2" xfId="112"/>
+    <cellStyle name="Normal 12" xfId="108"/>
+    <cellStyle name="Normal 13" xfId="95"/>
     <cellStyle name="Normal 2" xfId="53"/>
     <cellStyle name="Normal 2 2" xfId="84"/>
+    <cellStyle name="Normal 2 2 2" xfId="115"/>
+    <cellStyle name="Normal 2 2 3" xfId="114"/>
+    <cellStyle name="Normal 2 3" xfId="116"/>
+    <cellStyle name="Normal 2 3 2" xfId="117"/>
+    <cellStyle name="Normal 2 4" xfId="118"/>
+    <cellStyle name="Normal 2 5" xfId="119"/>
+    <cellStyle name="Normal 2 6" xfId="113"/>
+    <cellStyle name="Normal 2_DataMappingView" xfId="120"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 3 2" xfId="122"/>
+    <cellStyle name="Normal 3 2 2" xfId="123"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="124"/>
+    <cellStyle name="Normal 3 2 3" xfId="125"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="126"/>
+    <cellStyle name="Normal 3 2 4" xfId="127"/>
+    <cellStyle name="Normal 3 2_DataMappingView" xfId="128"/>
+    <cellStyle name="Normal 3 3" xfId="129"/>
+    <cellStyle name="Normal 3 3 2" xfId="130"/>
+    <cellStyle name="Normal 3 4" xfId="131"/>
+    <cellStyle name="Normal 3 5" xfId="121"/>
     <cellStyle name="Normal 4" xfId="59"/>
+    <cellStyle name="Normal 4 2" xfId="132"/>
     <cellStyle name="Normal 5" xfId="91"/>
+    <cellStyle name="Normal 5 2" xfId="133"/>
     <cellStyle name="Normal 6" xfId="92"/>
+    <cellStyle name="Normal 6 2" xfId="134"/>
+    <cellStyle name="Normal 7" xfId="135"/>
+    <cellStyle name="Normal 8" xfId="136"/>
+    <cellStyle name="Normal 9" xfId="137"/>
     <cellStyle name="Note 2" xfId="58"/>
     <cellStyle name="Note 2 2" xfId="86"/>
+    <cellStyle name="Note 2 3" xfId="138"/>
+    <cellStyle name="Note 3" xfId="139"/>
     <cellStyle name="Output" xfId="37" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Output 2" xfId="57"/>
     <cellStyle name="Output 2 2" xfId="87"/>
+    <cellStyle name="Output 2 3" xfId="140"/>
     <cellStyle name="Title" xfId="38" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Title 2" xfId="56"/>
     <cellStyle name="Title 2 2" xfId="88"/>
+    <cellStyle name="Title 2 3" xfId="141"/>
     <cellStyle name="Total" xfId="39" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="55"/>
     <cellStyle name="Total 2 2" xfId="89"/>
+    <cellStyle name="Total 2 3" xfId="142"/>
     <cellStyle name="Warning Text" xfId="40" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="54"/>
     <cellStyle name="Warning Text 2 2" xfId="90"/>
+    <cellStyle name="Warning Text 2 3" xfId="143"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -10578,8 +10730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10588,7 +10740,7 @@
     <col min="2" max="2" width="16.85546875" style="73" customWidth="1"/>
     <col min="3" max="3" width="79.140625" style="73" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="140" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="139" customWidth="1"/>
     <col min="6" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
@@ -10605,7 +10757,7 @@
         <v>184</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="90" x14ac:dyDescent="0.2">
@@ -10613,7 +10765,7 @@
         <v>185</v>
       </c>
       <c r="C4" s="136" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.2">
@@ -10634,7 +10786,7 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
-      <c r="E7" s="141"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="137" t="s">
@@ -10646,7 +10798,7 @@
       <c r="D8" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="141" t="s">
         <v>190</v>
       </c>
     </row>
@@ -10660,7 +10812,7 @@
       <c r="D9" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="144">
         <v>40646</v>
       </c>
     </row>
@@ -10674,7 +10826,7 @@
       <c r="D10" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="147">
+      <c r="E10" s="144">
         <v>40648</v>
       </c>
     </row>
@@ -10688,7 +10840,7 @@
       <c r="D11" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="147">
+      <c r="E11" s="144">
         <v>40702</v>
       </c>
     </row>
@@ -10702,7 +10854,7 @@
       <c r="D12" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="147">
+      <c r="E12" s="144">
         <v>40766</v>
       </c>
     </row>
@@ -10716,7 +10868,7 @@
       <c r="D13" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="144">
         <v>40767</v>
       </c>
     </row>
@@ -10730,7 +10882,7 @@
       <c r="D14" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="147">
+      <c r="E14" s="144">
         <v>40773</v>
       </c>
     </row>
@@ -10744,7 +10896,7 @@
       <c r="D15" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="E15" s="147">
+      <c r="E15" s="144">
         <v>40786</v>
       </c>
     </row>
@@ -10758,7 +10910,7 @@
       <c r="D16" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="147">
+      <c r="E16" s="144">
         <v>40787</v>
       </c>
     </row>
@@ -10772,7 +10924,7 @@
       <c r="D17" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="147">
+      <c r="E17" s="144">
         <v>40863</v>
       </c>
     </row>
@@ -10784,7 +10936,7 @@
       <c r="D18" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="E18" s="147">
+      <c r="E18" s="144">
         <v>40913</v>
       </c>
     </row>
@@ -10798,13 +10950,13 @@
       <c r="D19" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="147">
+      <c r="E19" s="144">
         <v>41066</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B20" s="74" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>471</v>
@@ -10812,34 +10964,40 @@
       <c r="D20" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="147">
+      <c r="E20" s="144">
         <v>41177</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="36" x14ac:dyDescent="0.2">
       <c r="B21" s="74"/>
       <c r="C21" s="81" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="144">
         <v>41296</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="139"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="143"/>
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="174"/>
+      <c r="C22" s="174" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D22" s="175" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E22" s="176">
+        <v>41442</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="82" t="s">
         <v>347</v>
       </c>
       <c r="D27" s="83"/>
-      <c r="E27" s="144"/>
+      <c r="E27" s="142"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C28" s="84" t="s">
@@ -10848,7 +11006,7 @@
       <c r="D28" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="143" t="s">
         <v>190</v>
       </c>
     </row>
@@ -11138,14 +11296,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -11154,64 +11312,64 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
     </row>
     <row r="7" spans="1:6" s="35" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -11261,7 +11419,7 @@
     <col min="6" max="6" width="18" style="26" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="19" style="150" customWidth="1"/>
+    <col min="9" max="9" width="19" style="147" customWidth="1"/>
     <col min="10" max="10" width="13" style="26" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="26" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="26" customWidth="1"/>
@@ -11322,7 +11480,7 @@
         <v>198</v>
       </c>
       <c r="B1" s="12"/>
-      <c r="I1" s="148"/>
+      <c r="I1" s="145"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="N1" s="17"/>
@@ -11331,10 +11489,10 @@
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
-      <c r="T1" s="154" t="s">
+      <c r="T1" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="U1" s="154"/>
+      <c r="U1" s="151"/>
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
       <c r="X1" s="24"/>
@@ -11370,7 +11528,7 @@
       <c r="AY1" s="13"/>
       <c r="BA1" s="20"/>
       <c r="BB1" s="20" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="BC1" s="20"/>
       <c r="BD1" s="20"/>
@@ -11398,18 +11556,18 @@
         <v>164</v>
       </c>
       <c r="H2" s="102" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I2" s="102" t="s">
         <v>1477</v>
       </c>
-      <c r="I2" s="102" t="s">
-        <v>1479</v>
-      </c>
-      <c r="J2" s="151" t="s">
+      <c r="J2" s="148" t="s">
         <v>124</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="151" t="s">
+      <c r="L2" s="148" t="s">
         <v>132</v>
       </c>
       <c r="M2" s="16" t="s">
@@ -11418,7 +11576,7 @@
       <c r="N2" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="152" t="s">
+      <c r="O2" s="149" t="s">
         <v>109</v>
       </c>
       <c r="P2" s="16" t="s">
@@ -11427,79 +11585,79 @@
       <c r="Q2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="155" t="s">
+      <c r="R2" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="153" t="s">
+      <c r="S2" s="150" t="s">
         <v>1350</v>
       </c>
-      <c r="T2" s="153" t="s">
+      <c r="T2" s="150" t="s">
         <v>1351</v>
       </c>
-      <c r="U2" s="153" t="s">
+      <c r="U2" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="V2" s="153" t="s">
+      <c r="V2" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="153" t="s">
+      <c r="W2" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="156" t="s">
+      <c r="X2" s="153" t="s">
         <v>251</v>
       </c>
-      <c r="Y2" s="156" t="s">
+      <c r="Y2" s="153" t="s">
         <v>252</v>
       </c>
-      <c r="Z2" s="157" t="s">
+      <c r="Z2" s="154" t="s">
         <v>270</v>
       </c>
-      <c r="AA2" s="156" t="s">
+      <c r="AA2" s="153" t="s">
         <v>255</v>
       </c>
-      <c r="AB2" s="156" t="s">
+      <c r="AB2" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="AC2" s="156" t="s">
+      <c r="AC2" s="153" t="s">
         <v>257</v>
       </c>
-      <c r="AD2" s="156" t="s">
+      <c r="AD2" s="153" t="s">
         <v>304</v>
       </c>
-      <c r="AE2" s="156" t="s">
+      <c r="AE2" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="AF2" s="156" t="s">
+      <c r="AF2" s="153" t="s">
         <v>259</v>
       </c>
-      <c r="AG2" s="156" t="s">
+      <c r="AG2" s="153" t="s">
         <v>260</v>
       </c>
-      <c r="AH2" s="157" t="s">
+      <c r="AH2" s="154" t="s">
         <v>261</v>
       </c>
-      <c r="AI2" s="157" t="s">
+      <c r="AI2" s="154" t="s">
         <v>1469</v>
       </c>
-      <c r="AJ2" s="158" t="s">
+      <c r="AJ2" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="AK2" s="158" t="s">
+      <c r="AK2" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="AL2" s="158" t="s">
+      <c r="AL2" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="AM2" s="159" t="s">
+      <c r="AM2" s="156" t="s">
         <v>243</v>
       </c>
-      <c r="AN2" s="159" t="s">
+      <c r="AN2" s="156" t="s">
         <v>1355</v>
       </c>
-      <c r="AO2" s="160" t="s">
+      <c r="AO2" s="157" t="s">
         <v>1358</v>
       </c>
-      <c r="AP2" s="160" t="s">
+      <c r="AP2" s="157" t="s">
         <v>1459</v>
       </c>
       <c r="AQ2" s="31" t="s">
@@ -11542,7 +11700,7 @@
         <v>173</v>
       </c>
       <c r="BD2" s="31" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="BE2" s="22" t="s">
         <v>354</v>
@@ -11570,7 +11728,7 @@
       <c r="M3" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="149">
+      <c r="O3" s="146">
         <v>28230</v>
       </c>
       <c r="Q3" s="25" t="s">
@@ -11620,8 +11778,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11636,28 +11794,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="162" t="s">
         <v>1461</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="163" t="s">
         <v>1462</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
       <c r="H2" s="40"/>
       <c r="I2" s="38"/>
     </row>
@@ -11819,7 +11977,7 @@
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B11" s="122" t="s">
         <v>302</v>
@@ -11831,13 +11989,13 @@
         <v>300</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B12" s="122" t="s">
         <v>301</v>
@@ -11849,7 +12007,7 @@
         <v>300</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -12239,7 +12397,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
         <v>304</v>
       </c>
@@ -12257,7 +12415,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>258</v>
       </c>
@@ -12272,7 +12430,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
         <v>259</v>
       </c>
@@ -12290,7 +12448,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>260</v>
       </c>
@@ -12308,7 +12466,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>261</v>
       </c>
@@ -12326,7 +12484,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>1469</v>
       </c>
@@ -12341,7 +12499,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>241</v>
       </c>
@@ -12361,7 +12519,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>242</v>
       </c>
@@ -12381,7 +12539,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>95</v>
       </c>
@@ -12394,12 +12552,13 @@
       <c r="D41" s="36">
         <v>1</v>
       </c>
-      <c r="E41" s="98" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="E41" s="173" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+    </row>
+    <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>243</v>
       </c>
@@ -12417,7 +12576,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="108" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
         <v>1355</v>
       </c>
@@ -12437,7 +12596,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="84" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>1358</v>
       </c>
@@ -12457,7 +12616,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>1459</v>
       </c>
@@ -12475,7 +12634,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>1359</v>
       </c>
@@ -12493,7 +12652,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>1360</v>
       </c>
@@ -12513,7 +12672,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>1361</v>
       </c>
@@ -12714,7 +12873,7 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B59" s="122" t="s">
         <v>303</v>
@@ -12744,7 +12903,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -17646,13 +17805,13 @@
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="168" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
@@ -17670,15 +17829,15 @@
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="164" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
@@ -17694,12 +17853,12 @@
       <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="169" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
@@ -17731,10 +17890,10 @@
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="45"/>
@@ -19592,6 +19751,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="279c20c3caf3300dae6b438536eb8c56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d2e1ca116041f9e11471c52c4c9d602">
     <xsd:element name="properties">
@@ -19640,32 +19814,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2990FE66-7AF0-4B0E-84F5-55ECE400C5EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF2FC82-BC39-4358-8A56-08290A6D4EDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19679,15 +19837,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF2FC82-BC39-4358-8A56-08290A6D4EDC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2990FE66-7AF0-4B0E-84F5-55ECE400C5EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>